--- a/Phenoloxidase Activity data/Data for 150 samples/10. Phenoloxidase 01-08-24 (HEG 14 - 22).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/10. Phenoloxidase 01-08-24 (HEG 14 - 22).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,11 +1022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246427936"/>
-        <c:axId val="246422840"/>
+        <c:axId val="253742328"/>
+        <c:axId val="252442272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246427936"/>
+        <c:axId val="253742328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,12 +1083,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246422840"/>
+        <c:crossAx val="252442272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246422840"/>
+        <c:axId val="252442272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246427936"/>
+        <c:crossAx val="253742328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1377,11 +1377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301736080"/>
-        <c:axId val="301738040"/>
+        <c:axId val="294921488"/>
+        <c:axId val="294927368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301736080"/>
+        <c:axId val="294921488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,12 +1438,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301738040"/>
+        <c:crossAx val="294927368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301738040"/>
+        <c:axId val="294927368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301736080"/>
+        <c:crossAx val="294921488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1762,11 +1762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301738432"/>
-        <c:axId val="301736864"/>
+        <c:axId val="294923056"/>
+        <c:axId val="294925016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301738432"/>
+        <c:axId val="294923056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,12 +1823,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301736864"/>
+        <c:crossAx val="294925016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301736864"/>
+        <c:axId val="294925016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301738432"/>
+        <c:crossAx val="294923056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2147,11 +2147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246424016"/>
-        <c:axId val="246425976"/>
+        <c:axId val="252728296"/>
+        <c:axId val="252833328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246424016"/>
+        <c:axId val="252728296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,12 +2208,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246425976"/>
+        <c:crossAx val="252833328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246425976"/>
+        <c:axId val="252833328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246424016"/>
+        <c:crossAx val="252728296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2532,11 +2532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246424408"/>
-        <c:axId val="246426368"/>
+        <c:axId val="252817296"/>
+        <c:axId val="252817680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246424408"/>
+        <c:axId val="252817296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,12 +2593,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246426368"/>
+        <c:crossAx val="252817680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246426368"/>
+        <c:axId val="252817680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2655,7 +2655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246424408"/>
+        <c:crossAx val="252817296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2923,11 +2923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246425192"/>
-        <c:axId val="246426760"/>
+        <c:axId val="252812376"/>
+        <c:axId val="252812760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246425192"/>
+        <c:axId val="252812376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,12 +2984,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246426760"/>
+        <c:crossAx val="252812760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246426760"/>
+        <c:axId val="252812760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246425192"/>
+        <c:crossAx val="252812376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3308,11 +3308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246420880"/>
-        <c:axId val="246421664"/>
+        <c:axId val="253818320"/>
+        <c:axId val="253818704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246420880"/>
+        <c:axId val="253818320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,12 +3369,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246421664"/>
+        <c:crossAx val="253818704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246421664"/>
+        <c:axId val="253818704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,7 +3431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246420880"/>
+        <c:crossAx val="253818320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3707,11 +3707,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301737648"/>
-        <c:axId val="301734120"/>
+        <c:axId val="253298152"/>
+        <c:axId val="253296976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301737648"/>
+        <c:axId val="253298152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,12 +3768,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301734120"/>
+        <c:crossAx val="253296976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301734120"/>
+        <c:axId val="253296976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3830,7 +3830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301737648"/>
+        <c:crossAx val="253298152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4112,11 +4112,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301731768"/>
-        <c:axId val="301732552"/>
+        <c:axId val="253300112"/>
+        <c:axId val="253297368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301731768"/>
+        <c:axId val="253300112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4173,12 +4173,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301732552"/>
+        <c:crossAx val="253297368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301732552"/>
+        <c:axId val="253297368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,7 +4235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301731768"/>
+        <c:crossAx val="253300112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4299,6 +4299,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4373,6 +4374,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4497,11 +4499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301734512"/>
-        <c:axId val="301733336"/>
+        <c:axId val="253298544"/>
+        <c:axId val="253298936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301734512"/>
+        <c:axId val="253298544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4558,12 +4560,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301733336"/>
+        <c:crossAx val="253298936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301733336"/>
+        <c:axId val="253298936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4620,7 +4622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301734512"/>
+        <c:crossAx val="253298544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4684,6 +4686,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4758,6 +4761,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4882,11 +4886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301732160"/>
-        <c:axId val="301736472"/>
+        <c:axId val="294926584"/>
+        <c:axId val="294924624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301732160"/>
+        <c:axId val="294926584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4943,12 +4947,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301736472"/>
+        <c:crossAx val="294924624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301736472"/>
+        <c:axId val="294924624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5005,7 +5009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301732160"/>
+        <c:crossAx val="294926584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11775,8 +11779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:L133"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15802,8 +15806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="H113" workbookViewId="0">
-      <selection activeCell="W131" sqref="W131"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20809,8 +20813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
